--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
   <si>
     <t>Mat</t>
   </si>
@@ -88,121 +88,313 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
+    <t>ESPINOSA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>QUIJANO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>MATLATECATL</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>ARGÜELLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
   </si>
   <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
   </si>
   <si>
     <t>MATA</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>VANESA</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>CRISTIAN FERNANDO</t>
+  </si>
+  <si>
+    <t>WENCESLAO</t>
+  </si>
+  <si>
+    <t>LIZBETH</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>BRYAN ABRAHAM</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>EDNA</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>DARLA MARLENE</t>
+  </si>
+  <si>
+    <t>DIEGO EMILIO</t>
+  </si>
+  <si>
+    <t>ANDRIK YOSIMAR</t>
+  </si>
+  <si>
+    <t>KARINA YOSELIN</t>
+  </si>
+  <si>
+    <t>ROSA ITZEL</t>
+  </si>
+  <si>
+    <t>NOEMI</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>CHARBEL</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>JASIEL</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>JUAN PABLO</t>
+  </si>
+  <si>
+    <t>JORGE MARIO</t>
+  </si>
+  <si>
+    <t>DULCE DANIELA</t>
+  </si>
+  <si>
+    <t>YARELI</t>
+  </si>
+  <si>
+    <t>ATZIN HEFZIBA</t>
+  </si>
+  <si>
+    <t>ANGEL SAMUEL</t>
+  </si>
+  <si>
+    <t>BIBIAN YANEL</t>
+  </si>
+  <si>
+    <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>MAGDA SARAY</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>AMISADAI</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>SAYURI BETSABE</t>
+  </si>
+  <si>
+    <t>CRISTINA KARELY</t>
+  </si>
+  <si>
+    <t>CRISTIAN MANUEL</t>
+  </si>
+  <si>
+    <t>JONATHAN MOISES</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
   </si>
   <si>
     <t>ADRIANA ARELY</t>
-  </si>
-  <si>
-    <t>ARANTXA</t>
-  </si>
-  <si>
-    <t>MARIA YAZMIN</t>
-  </si>
-  <si>
-    <t>JAEL SAMAI</t>
-  </si>
-  <si>
-    <t>LIZBET</t>
-  </si>
-  <si>
-    <t>DANIELA RUBI</t>
-  </si>
-  <si>
-    <t>CRISTIAN ARTURO</t>
-  </si>
-  <si>
-    <t>JAROMI YAJAIRA</t>
-  </si>
-  <si>
-    <t>BERENICE</t>
-  </si>
-  <si>
-    <t>IRIS VIANNEY</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>AYARI</t>
   </si>
 </sst>
 </file>
@@ -606,16 +798,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>61.76</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -629,16 +824,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>45.16</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -652,16 +850,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.44</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -675,16 +876,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>51.16</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -698,16 +902,19 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>54.55</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -721,16 +928,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>58.33</v>
+      </c>
+      <c r="H7">
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -744,16 +954,19 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H8">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -812,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -835,7 +1048,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -858,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -881,7 +1094,7 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -904,7 +1117,7 @@
         <v>44</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -927,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -950,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1012,16 +1225,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>61.76</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1035,16 +1251,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>45.16</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1058,16 +1277,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>69.44</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1081,16 +1303,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>51.16</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1104,16 +1329,19 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>54.55</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1127,16 +1355,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>58.33</v>
+      </c>
+      <c r="H7">
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1150,16 +1381,19 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H8">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1204,22 +1438,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920369</v>
+        <v>21330051920157</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1227,22 +1461,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920161</v>
+        <v>21330051920161</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1250,22 +1484,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920163</v>
+        <v>21330051920162</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1273,22 +1507,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920370</v>
+        <v>21330051920199</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1296,22 +1530,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920372</v>
+        <v>21330051920233</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1319,22 +1553,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920165</v>
+        <v>21330051920241</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1342,22 +1576,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920167</v>
+        <v>21330051920358</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1365,22 +1599,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920171</v>
+        <v>21330051920277</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1388,22 +1622,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920172</v>
+        <v>21330051920284</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1411,22 +1645,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920180</v>
+        <v>21330051920295</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1434,22 +1668,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920254</v>
+        <v>21330051920297</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1457,22 +1691,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920181</v>
+        <v>21330051920299</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1480,22 +1714,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920182</v>
+        <v>21330051920304</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1503,24 +1737,737 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920186</v>
+        <v>21330051920323</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920324</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21330051920328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>21330051920330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>21330051920352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21330051920169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21330051920191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21330051920193</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>21330051920194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>21330051920204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>21330051920209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>21330051920240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>21330051920251</v>
+      </c>
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>21330051920253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>21330051920257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>21330051920360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>21330051920266</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>21330051920278</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>21330051920286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>21330051920291</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>21330051920298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>21330051920301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>21330051920312</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>21330051920319</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>21330051920338</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>21330051920341</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>21330051920342</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>21330051920347</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>21330051920350</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>21330051920353</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>20330051920163</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F46" t="s">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="G46">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
   <si>
     <t>Mat</t>
   </si>
@@ -133,135 +133,108 @@
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>QUIJANO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>MATLATECATL</t>
+  </si>
+  <si>
+    <t>ARGÜELLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>QUIJANO</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>MATLATECATL</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>ARGÜELLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>NARANJO</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
     <t>CORONA</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>DARLA MARLENE</t>
   </si>
   <si>
-    <t>DIEGO EMILIO</t>
-  </si>
-  <si>
     <t>ANDRIK YOSIMAR</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t>ROSA ITZEL</t>
   </si>
   <si>
-    <t>NOEMI</t>
-  </si>
-  <si>
     <t>MONICA</t>
   </si>
   <si>
@@ -328,9 +295,6 @@
     <t>ITZEL</t>
   </si>
   <si>
-    <t>JASIEL</t>
-  </si>
-  <si>
     <t>JULIO</t>
   </si>
   <si>
@@ -343,9 +307,6 @@
     <t>DULCE DANIELA</t>
   </si>
   <si>
-    <t>YARELI</t>
-  </si>
-  <si>
     <t>ATZIN HEFZIBA</t>
   </si>
   <si>
@@ -355,46 +316,25 @@
     <t>BIBIAN YANEL</t>
   </si>
   <si>
-    <t>ARANTXA</t>
-  </si>
-  <si>
-    <t>MAGDA SARAY</t>
-  </si>
-  <si>
     <t>RUTH</t>
   </si>
   <si>
     <t>AMISADAI</t>
   </si>
   <si>
-    <t>LUIS CARLOS</t>
-  </si>
-  <si>
     <t>ARACELY</t>
   </si>
   <si>
     <t>SAYURI BETSABE</t>
   </si>
   <si>
-    <t>CRISTINA KARELY</t>
-  </si>
-  <si>
-    <t>CRISTIAN MANUEL</t>
-  </si>
-  <si>
     <t>JONATHAN MOISES</t>
   </si>
   <si>
     <t>ANGEL DE JESUS</t>
   </si>
   <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
     <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>ADRIANA ARELY</t>
   </si>
 </sst>
 </file>
@@ -824,16 +764,16 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>45.16</v>
+        <v>48.39</v>
       </c>
       <c r="H3">
         <v>7.5</v>
@@ -876,16 +816,16 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>51.16</v>
+        <v>58.14</v>
       </c>
       <c r="H5">
         <v>7.4</v>
@@ -899,19 +839,19 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>54.55</v>
+        <v>60.47</v>
       </c>
       <c r="H6">
         <v>7.4</v>
@@ -928,19 +868,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -951,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -960,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>71.43000000000001</v>
+        <v>72.22</v>
       </c>
       <c r="H8">
         <v>8.5</v>
@@ -1048,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1094,7 +1034,7 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1111,13 +1051,13 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1140,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1157,13 +1097,13 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1251,16 +1191,16 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>45.16</v>
+        <v>48.39</v>
       </c>
       <c r="H3">
         <v>7.5</v>
@@ -1303,16 +1243,16 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>51.16</v>
+        <v>58.14</v>
       </c>
       <c r="H5">
         <v>7.4</v>
@@ -1326,19 +1266,19 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>54.55</v>
+        <v>60.47</v>
       </c>
       <c r="H6">
         <v>7.4</v>
@@ -1355,19 +1295,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1378,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1387,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>71.43000000000001</v>
+        <v>72.22</v>
       </c>
       <c r="H8">
         <v>8.5</v>
@@ -1403,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,10 +1384,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1467,10 +1407,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1493,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1513,10 +1453,10 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1539,7 +1479,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1559,10 +1499,10 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1582,10 +1522,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1605,10 +1545,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1628,10 +1568,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1651,10 +1591,10 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1674,10 +1614,10 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1700,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1723,7 +1663,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1737,16 +1677,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920323</v>
+        <v>21330051920324</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1760,16 +1700,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920324</v>
+        <v>21330051920328</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1783,16 +1723,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920328</v>
+        <v>21330051920330</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1806,22 +1746,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>21330051920330</v>
+        <v>20330051920178</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1829,22 +1769,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920352</v>
+        <v>21330051920169</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -1852,22 +1792,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920178</v>
+        <v>21330051920191</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1875,22 +1815,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21330051920169</v>
+        <v>21330051920194</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1898,16 +1838,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21330051920191</v>
+        <v>21330051920204</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1921,16 +1861,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>21330051920193</v>
+        <v>21330051920209</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1944,22 +1884,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21330051920194</v>
+        <v>21330051920240</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1967,22 +1907,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21330051920204</v>
+        <v>21330051920253</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1990,22 +1930,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>21330051920209</v>
+        <v>21330051920257</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -2013,22 +1953,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>21330051920240</v>
+        <v>21330051920360</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2036,16 +1976,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>21330051920251</v>
+        <v>21330051920266</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -2059,22 +1999,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>21330051920253</v>
+        <v>21330051920291</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -2082,22 +2022,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>21330051920257</v>
+        <v>21330051920298</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>6</v>
@@ -2105,22 +2045,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>21330051920360</v>
+        <v>21330051920312</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>6</v>
@@ -2128,7 +2068,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>21330051920266</v>
+        <v>21330051920319</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -2137,13 +2077,13 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -2151,22 +2091,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>21330051920278</v>
+        <v>21330051920342</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -2174,22 +2114,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>21330051920286</v>
+        <v>21330051920347</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -2197,277 +2137,24 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>21330051920291</v>
+        <v>21330051920353</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>21330051920298</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>21330051920301</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>21330051920312</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>21330051920319</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>21330051920338</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>21330051920341</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>21330051920342</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>21330051920347</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>21330051920350</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>21330051920353</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>20330051920163</v>
-      </c>
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>Mat</t>
   </si>
@@ -88,114 +88,96 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ESPINOSA</t>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>MATLATECATL</t>
+  </si>
+  <si>
+    <t>ARGÜELLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>QUIJANO</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>MATLATECATL</t>
-  </si>
-  <si>
-    <t>ARGÜELLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>VILLEGAS</t>
   </si>
   <si>
-    <t>CARRERA</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
   </si>
   <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
@@ -232,24 +214,12 @@
     <t>GAMBINO</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>CORONA</t>
   </si>
   <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
     <t>CRISTIAN FERNANDO</t>
   </si>
   <si>
-    <t>WENCESLAO</t>
-  </si>
-  <si>
     <t>LIZBETH</t>
   </si>
   <si>
@@ -298,9 +268,6 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>JUAN PABLO</t>
-  </si>
-  <si>
     <t>JORGE MARIO</t>
   </si>
   <si>
@@ -313,25 +280,16 @@
     <t>ANGEL SAMUEL</t>
   </si>
   <si>
-    <t>BIBIAN YANEL</t>
-  </si>
-  <si>
     <t>RUTH</t>
   </si>
   <si>
     <t>AMISADAI</t>
   </si>
   <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
     <t>SAYURI BETSABE</t>
   </si>
   <si>
     <t>JONATHAN MOISES</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
   </si>
   <si>
     <t>ABIGAIL</t>
@@ -738,19 +696,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -764,19 +722,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -816,16 +774,16 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="H5">
         <v>7.4</v>
@@ -842,16 +800,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="H6">
         <v>7.4</v>
@@ -868,19 +826,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="H7">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -965,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -988,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1034,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1057,7 +1015,7 @@
         <v>43</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1080,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1165,19 +1123,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1191,19 +1149,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1243,16 +1201,16 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="H5">
         <v>7.4</v>
@@ -1269,16 +1227,16 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="H6">
         <v>7.4</v>
@@ -1295,19 +1253,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="H7">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1343,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1378,16 +1336,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920157</v>
+        <v>21330051920162</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1401,22 +1359,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920161</v>
+        <v>21330051920233</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1424,22 +1382,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920162</v>
+        <v>21330051920241</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1447,22 +1405,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920199</v>
+        <v>21330051920358</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1470,22 +1428,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920233</v>
+        <v>21330051920277</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1493,22 +1451,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920241</v>
+        <v>21330051920284</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1516,22 +1474,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920358</v>
+        <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1539,22 +1497,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920277</v>
+        <v>21330051920297</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1562,22 +1520,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920284</v>
+        <v>21330051920299</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1585,16 +1543,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920295</v>
+        <v>21330051920304</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1608,16 +1566,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920297</v>
+        <v>21330051920324</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1631,16 +1589,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920299</v>
+        <v>21330051920328</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1654,16 +1612,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920304</v>
+        <v>21330051920330</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1677,22 +1635,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920324</v>
+        <v>20330051920178</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1700,22 +1658,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920328</v>
+        <v>21330051920169</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1723,22 +1681,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920330</v>
+        <v>21330051920191</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1746,22 +1704,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920178</v>
+        <v>21330051920194</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1769,22 +1727,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920169</v>
+        <v>21330051920209</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -1792,22 +1750,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>21330051920191</v>
+        <v>21330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1815,22 +1773,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21330051920194</v>
+        <v>21330051920253</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1838,22 +1796,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21330051920204</v>
+        <v>21330051920257</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1861,22 +1819,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>21330051920209</v>
+        <v>21330051920360</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -1884,22 +1842,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21330051920240</v>
+        <v>21330051920291</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1907,22 +1865,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21330051920253</v>
+        <v>21330051920298</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1930,22 +1888,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>21330051920257</v>
+        <v>21330051920319</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1953,22 +1911,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>21330051920360</v>
+        <v>21330051920342</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -1976,185 +1934,24 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>21330051920266</v>
+        <v>21330051920353</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>21330051920291</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>21330051920298</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>21330051920312</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>21330051920319</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>21330051920342</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>21330051920347</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>21330051920353</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
   <si>
     <t>Mat</t>
   </si>
@@ -127,18 +127,12 @@
     <t>ZUÑIGA</t>
   </si>
   <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
     <t>RUIZ</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>NAVARRO</t>
   </si>
   <si>
@@ -256,16 +247,10 @@
     <t>ROSA ITZEL</t>
   </si>
   <si>
-    <t>MONICA</t>
-  </si>
-  <si>
     <t>CHARBEL</t>
   </si>
   <si>
     <t>ITZEL</t>
-  </si>
-  <si>
-    <t>JULIO</t>
   </si>
   <si>
     <t>JORGE MARIO</t>
@@ -722,19 +707,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>54.84</v>
+        <v>58.06</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,19 +837,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>72.22</v>
+        <v>86.11</v>
       </c>
       <c r="H8">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1061,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1149,19 +1134,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>54.84</v>
+        <v>58.06</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1279,19 +1264,19 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>72.22</v>
+        <v>86.11</v>
       </c>
       <c r="H8">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1342,10 +1327,10 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1368,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1388,10 +1373,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1411,10 +1396,10 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1434,10 +1419,10 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1457,10 +1442,10 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1480,10 +1465,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1503,10 +1488,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1526,10 +1511,10 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1552,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1572,10 +1557,10 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1595,10 +1580,10 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1618,10 +1603,10 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1635,22 +1620,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920178</v>
+        <v>21330051920169</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1658,22 +1643,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920169</v>
+        <v>21330051920191</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -1681,16 +1666,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920191</v>
+        <v>21330051920209</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1704,22 +1689,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>21330051920194</v>
+        <v>21330051920240</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1727,22 +1712,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920209</v>
+        <v>21330051920253</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -1750,22 +1735,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>21330051920240</v>
+        <v>21330051920257</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -1773,16 +1758,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21330051920253</v>
+        <v>21330051920360</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1796,22 +1781,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21330051920257</v>
+        <v>21330051920291</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1819,22 +1804,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>21330051920360</v>
+        <v>21330051920298</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -1842,16 +1827,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21330051920291</v>
+        <v>21330051920319</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1865,22 +1850,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21330051920298</v>
+        <v>21330051920342</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1888,70 +1873,24 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>21330051920319</v>
+        <v>21330051920353</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>21330051920342</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>21330051920353</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
         <v>6</v>
       </c>
     </row>
